--- a/data/negative_signals/Indirectly connected (A-X-B) - Terazosin - drug-induced liver injury.xlsx
+++ b/data/negative_signals/Indirectly connected (A-X-B) - Terazosin - drug-induced liver injury.xlsx
@@ -173,127 +173,667 @@
     <t>Chemicals &amp; Drugs</t>
   </si>
   <si>
+    <t>477234</t>
+  </si>
+  <si>
+    <t>cocaine</t>
+  </si>
+  <si>
+    <t>636875</t>
+  </si>
+  <si>
+    <t>drug-induced liver injury</t>
+  </si>
+  <si>
+    <t>Disorders</t>
+  </si>
+  <si>
+    <t>82641664</t>
+  </si>
+  <si>
+    <t>stimulates</t>
+  </si>
+  <si>
+    <t>14434730</t>
+  </si>
+  <si>
+    <t>indicates</t>
+  </si>
+  <si>
+    <t>643114</t>
+  </si>
+  <si>
+    <t>aspirin</t>
+  </si>
+  <si>
+    <t>133694308</t>
+  </si>
+  <si>
+    <t>inhibits</t>
+  </si>
+  <si>
+    <t>12781683</t>
+  </si>
+  <si>
+    <t>treats</t>
+  </si>
+  <si>
+    <t>12780167</t>
+  </si>
+  <si>
+    <t>2467772</t>
+  </si>
+  <si>
+    <t>bax (homo sapiens)</t>
+  </si>
+  <si>
+    <t>Genes &amp; Molecular Sequences</t>
+  </si>
+  <si>
+    <t>21693625</t>
+  </si>
+  <si>
+    <t>24336725</t>
+  </si>
+  <si>
+    <t>is associated with</t>
+  </si>
+  <si>
+    <t>28198230</t>
+  </si>
+  <si>
+    <t>gene product is biomarker type</t>
+  </si>
+  <si>
+    <t>4041077</t>
+  </si>
+  <si>
+    <t>enalapril</t>
+  </si>
+  <si>
+    <t>77583360</t>
+  </si>
+  <si>
+    <t>is compared with</t>
+  </si>
+  <si>
+    <t>15563673</t>
+  </si>
+  <si>
+    <t>4027065</t>
+  </si>
+  <si>
+    <t>prazosin</t>
+  </si>
+  <si>
+    <t>92836774</t>
+  </si>
+  <si>
+    <t>is higher than</t>
+  </si>
+  <si>
+    <t>92836662</t>
+  </si>
+  <si>
+    <t>92836852</t>
+  </si>
+  <si>
+    <t>coexists with</t>
+  </si>
+  <si>
+    <t>92836587</t>
+  </si>
+  <si>
+    <t>65748153</t>
+  </si>
+  <si>
+    <t>is lower than</t>
+  </si>
+  <si>
+    <t>92836705</t>
+  </si>
+  <si>
+    <t>65753818</t>
+  </si>
+  <si>
+    <t>is the same as</t>
+  </si>
+  <si>
+    <t>70620347</t>
+  </si>
+  <si>
+    <t>interacts with</t>
+  </si>
+  <si>
+    <t>93440617</t>
+  </si>
+  <si>
+    <t>uses</t>
+  </si>
+  <si>
+    <t>56887583</t>
+  </si>
+  <si>
+    <t>is a</t>
+  </si>
+  <si>
+    <t>137459945</t>
+  </si>
+  <si>
+    <t>is parent of</t>
+  </si>
+  <si>
+    <t>55297914</t>
+  </si>
+  <si>
+    <t>92836791</t>
+  </si>
+  <si>
+    <t>15971448</t>
+  </si>
+  <si>
+    <t>432475</t>
+  </si>
+  <si>
+    <t>verapamil</t>
+  </si>
+  <si>
+    <t>86289233</t>
+  </si>
+  <si>
+    <t>does not interact with</t>
+  </si>
+  <si>
+    <t>13018187</t>
+  </si>
+  <si>
+    <t>2787844</t>
+  </si>
+  <si>
+    <t>abcb1 (homo sapiens)</t>
+  </si>
+  <si>
+    <t>130050965</t>
+  </si>
+  <si>
+    <t>24319471</t>
+  </si>
+  <si>
+    <t>28266295</t>
+  </si>
+  <si>
+    <t>28266296</t>
+  </si>
+  <si>
+    <t>gene product variant causes</t>
+  </si>
+  <si>
+    <t>90859</t>
+  </si>
+  <si>
+    <t>amlodipine</t>
+  </si>
+  <si>
+    <t>79658104</t>
+  </si>
+  <si>
+    <t>13852892</t>
+  </si>
+  <si>
+    <t>427699</t>
+  </si>
+  <si>
+    <t>sertraline</t>
+  </si>
+  <si>
+    <t>129875266</t>
+  </si>
+  <si>
+    <t>16412266</t>
+  </si>
+  <si>
+    <t>4033909</t>
+  </si>
+  <si>
+    <t>edema</t>
+  </si>
+  <si>
+    <t>16550695</t>
+  </si>
+  <si>
+    <t>40066471</t>
+  </si>
+  <si>
+    <t>is manifestation of</t>
+  </si>
+  <si>
+    <t>807985</t>
+  </si>
+  <si>
+    <t>paclitaxel</t>
+  </si>
+  <si>
+    <t>130061940</t>
+  </si>
+  <si>
+    <t>15279633</t>
+  </si>
+  <si>
+    <t>15279786</t>
+  </si>
+  <si>
+    <t>620183</t>
+  </si>
+  <si>
+    <t>triglycerides</t>
+  </si>
+  <si>
+    <t>67800745</t>
+  </si>
+  <si>
+    <t>51508482</t>
+  </si>
+  <si>
+    <t>16785683</t>
+  </si>
+  <si>
+    <t>614774</t>
+  </si>
+  <si>
+    <t>nitric oxide</t>
+  </si>
+  <si>
+    <t>112732783</t>
+  </si>
+  <si>
+    <t>14969446</t>
+  </si>
+  <si>
+    <t>613016</t>
+  </si>
+  <si>
+    <t>comatose</t>
+  </si>
+  <si>
+    <t>16550387</t>
+  </si>
+  <si>
+    <t>40121716</t>
+  </si>
+  <si>
+    <t>5792455</t>
+  </si>
+  <si>
+    <t>atenolol</t>
+  </si>
+  <si>
+    <t>120231890</t>
+  </si>
+  <si>
+    <t>120231458</t>
+  </si>
+  <si>
+    <t>120227176</t>
+  </si>
+  <si>
+    <t>51507049</t>
+  </si>
+  <si>
+    <t>51508957</t>
+  </si>
+  <si>
+    <t>12911569</t>
+  </si>
+  <si>
+    <t>450061</t>
+  </si>
+  <si>
+    <t>propranolol</t>
+  </si>
+  <si>
+    <t>82719183</t>
+  </si>
+  <si>
+    <t>75568379</t>
+  </si>
+  <si>
+    <t>82719113</t>
+  </si>
+  <si>
+    <t>16218452</t>
+  </si>
+  <si>
+    <t>3815520</t>
+  </si>
+  <si>
+    <t>prostatic neoplasms</t>
+  </si>
+  <si>
+    <t>16551530</t>
+  </si>
+  <si>
+    <t>40161662</t>
+  </si>
+  <si>
+    <t>89343</t>
+  </si>
+  <si>
+    <t>tamoxifen</t>
+  </si>
+  <si>
+    <t>105836549</t>
+  </si>
+  <si>
+    <t>16532024</t>
+  </si>
+  <si>
+    <t>16531856</t>
+  </si>
+  <si>
+    <t>5793019</t>
+  </si>
+  <si>
+    <t>alfuzosin</t>
+  </si>
+  <si>
+    <t>94372918</t>
+  </si>
+  <si>
+    <t>84238838</t>
+  </si>
+  <si>
+    <t>118133320</t>
+  </si>
+  <si>
+    <t>84240023</t>
+  </si>
+  <si>
+    <t>94372872</t>
+  </si>
+  <si>
+    <t>13291113</t>
+  </si>
+  <si>
+    <t>5646027</t>
+  </si>
+  <si>
+    <t>antibiotics</t>
+  </si>
+  <si>
+    <t>98838123</t>
+  </si>
+  <si>
+    <t>13984804</t>
+  </si>
+  <si>
+    <t>5229804</t>
+  </si>
+  <si>
+    <t>carvedilol</t>
+  </si>
+  <si>
+    <t>128754566</t>
+  </si>
+  <si>
+    <t>14041397</t>
+  </si>
+  <si>
+    <t>4769522</t>
+  </si>
+  <si>
+    <t>chlormezanone</t>
+  </si>
+  <si>
+    <t>56747235</t>
+  </si>
+  <si>
+    <t>56747696</t>
+  </si>
+  <si>
+    <t>14140295</t>
+  </si>
+  <si>
+    <t>4048102</t>
+  </si>
+  <si>
+    <t>nicotine</t>
+  </si>
+  <si>
+    <t>95070709</t>
+  </si>
+  <si>
+    <t>14884356</t>
+  </si>
+  <si>
+    <t>4034783</t>
+  </si>
+  <si>
+    <t>hydrochlorothiazide</t>
+  </si>
+  <si>
+    <t>113499316</t>
+  </si>
+  <si>
+    <t>65751915</t>
+  </si>
+  <si>
+    <t>12766239</t>
+  </si>
+  <si>
+    <t>4027945</t>
+  </si>
+  <si>
+    <t>lipids</t>
+  </si>
+  <si>
+    <t>86288714</t>
+  </si>
+  <si>
+    <t>94904416</t>
+  </si>
+  <si>
+    <t>85258158</t>
+  </si>
+  <si>
+    <t>13694887</t>
+  </si>
+  <si>
+    <t>3814685</t>
+  </si>
+  <si>
+    <t>uridine</t>
+  </si>
+  <si>
+    <t>77259273</t>
+  </si>
+  <si>
+    <t>16820466</t>
+  </si>
+  <si>
+    <t>3760991</t>
+  </si>
+  <si>
+    <t>rauwolscine</t>
+  </si>
+  <si>
+    <t>78729902</t>
+  </si>
+  <si>
+    <t>78729949</t>
+  </si>
+  <si>
+    <t>13367493</t>
+  </si>
+  <si>
+    <t>771187</t>
+  </si>
+  <si>
+    <t>cholesterol</t>
+  </si>
+  <si>
+    <t>115775255</t>
+  </si>
+  <si>
+    <t>14200291</t>
+  </si>
+  <si>
     <t>607167</t>
   </si>
   <si>
     <t>hypertensive disease</t>
   </si>
   <si>
-    <t>Disorders</t>
-  </si>
-  <si>
-    <t>636875</t>
-  </si>
-  <si>
-    <t>drug-induced liver injury</t>
-  </si>
-  <si>
-    <t>159334761</t>
+    <t>16550769</t>
+  </si>
+  <si>
+    <t>58318672</t>
+  </si>
+  <si>
+    <t>affects</t>
+  </si>
+  <si>
+    <t>52881099</t>
+  </si>
+  <si>
+    <t>does not prevent</t>
+  </si>
+  <si>
+    <t>93147664</t>
   </si>
   <si>
     <t>does not treat</t>
   </si>
   <si>
-    <t>119135069</t>
-  </si>
-  <si>
-    <t>does not prevent</t>
-  </si>
-  <si>
-    <t>82799029</t>
-  </si>
-  <si>
-    <t>treats</t>
-  </si>
-  <si>
-    <t>121004390</t>
-  </si>
-  <si>
-    <t>affects</t>
-  </si>
-  <si>
-    <t>106251697</t>
-  </si>
-  <si>
-    <t>is manifestation of</t>
-  </si>
-  <si>
-    <t>4027065</t>
-  </si>
-  <si>
-    <t>prazosin</t>
-  </si>
-  <si>
-    <t>132109574</t>
-  </si>
-  <si>
-    <t>is the same as</t>
-  </si>
-  <si>
-    <t>159131569</t>
-  </si>
-  <si>
-    <t>coexists with</t>
-  </si>
-  <si>
-    <t>159131410</t>
-  </si>
-  <si>
-    <t>inhibits</t>
-  </si>
-  <si>
-    <t>159131555</t>
-  </si>
-  <si>
-    <t>is higher than</t>
-  </si>
-  <si>
-    <t>121192873</t>
-  </si>
-  <si>
-    <t>is a</t>
-  </si>
-  <si>
-    <t>159131452</t>
-  </si>
-  <si>
-    <t>is compared with</t>
-  </si>
-  <si>
-    <t>159131485</t>
-  </si>
-  <si>
-    <t>136942600</t>
-  </si>
-  <si>
-    <t>interacts with</t>
-  </si>
-  <si>
-    <t>121688616</t>
-  </si>
-  <si>
-    <t>132102874</t>
-  </si>
-  <si>
-    <t>is lower than</t>
-  </si>
-  <si>
-    <t>159622374</t>
-  </si>
-  <si>
-    <t>uses</t>
-  </si>
-  <si>
-    <t>203650827</t>
-  </si>
-  <si>
-    <t>is parent of</t>
-  </si>
-  <si>
-    <t>159131618</t>
-  </si>
-  <si>
-    <t>82225239</t>
+    <t>40064973</t>
+  </si>
+  <si>
+    <t>414518</t>
+  </si>
+  <si>
+    <t>congestive heart failure</t>
+  </si>
+  <si>
+    <t>73420079</t>
+  </si>
+  <si>
+    <t>60607851</t>
+  </si>
+  <si>
+    <t>40120895</t>
+  </si>
+  <si>
+    <t>4048530</t>
+  </si>
+  <si>
+    <t>hypotension</t>
+  </si>
+  <si>
+    <t>55297799</t>
+  </si>
+  <si>
+    <t>72099801</t>
+  </si>
+  <si>
+    <t>16550857</t>
+  </si>
+  <si>
+    <t>40065002</t>
+  </si>
+  <si>
+    <t>67447</t>
+  </si>
+  <si>
+    <t>hyperlipidemia</t>
+  </si>
+  <si>
+    <t>52858223</t>
+  </si>
+  <si>
+    <t>40165698</t>
+  </si>
+  <si>
+    <t>5699005</t>
+  </si>
+  <si>
+    <t>falls</t>
+  </si>
+  <si>
+    <t>65999206</t>
+  </si>
+  <si>
+    <t>causes</t>
+  </si>
+  <si>
+    <t>40066622</t>
+  </si>
+  <si>
+    <t>5308239</t>
+  </si>
+  <si>
+    <t>woman</t>
+  </si>
+  <si>
+    <t>Living Beings</t>
+  </si>
+  <si>
+    <t>68555201</t>
+  </si>
+  <si>
+    <t>83664676</t>
+  </si>
+  <si>
+    <t>is process of</t>
+  </si>
+  <si>
+    <t>4047577</t>
+  </si>
+  <si>
+    <t>hypercholesterolemia</t>
+  </si>
+  <si>
+    <t>81724163</t>
+  </si>
+  <si>
+    <t>40121919</t>
+  </si>
+  <si>
+    <t>4027653</t>
+  </si>
+  <si>
+    <t>patients</t>
+  </si>
+  <si>
+    <t>65750486</t>
+  </si>
+  <si>
+    <t>53948396</t>
+  </si>
+  <si>
+    <t>is administered to</t>
+  </si>
+  <si>
+    <t>51555224</t>
+  </si>
+  <si>
+    <t>57089536</t>
+  </si>
+  <si>
+    <t>52054726</t>
+  </si>
+  <si>
+    <t>is not process of</t>
+  </si>
+  <si>
+    <t>301179</t>
+  </si>
+  <si>
+    <t>child</t>
+  </si>
+  <si>
+    <t>56824230</t>
+  </si>
+  <si>
+    <t>52189301</t>
   </si>
   <si>
     <t>5648228</t>
@@ -305,565 +845,25 @@
     <t>Procedures</t>
   </si>
   <si>
-    <t>118246225</t>
-  </si>
-  <si>
-    <t>185326717</t>
-  </si>
-  <si>
-    <t>118245437</t>
-  </si>
-  <si>
-    <t>154604763</t>
+    <t>119183319</t>
+  </si>
+  <si>
+    <t>52025036</t>
+  </si>
+  <si>
+    <t>52025671</t>
+  </si>
+  <si>
+    <t>88403792</t>
   </si>
   <si>
     <t>is method of</t>
   </si>
   <si>
-    <t>154604704</t>
-  </si>
-  <si>
-    <t>132831869</t>
-  </si>
-  <si>
-    <t>477234</t>
-  </si>
-  <si>
-    <t>cocaine</t>
-  </si>
-  <si>
-    <t>149065273</t>
-  </si>
-  <si>
-    <t>stimulates</t>
-  </si>
-  <si>
-    <t>80648667</t>
-  </si>
-  <si>
-    <t>indicates</t>
-  </si>
-  <si>
-    <t>643114</t>
-  </si>
-  <si>
-    <t>aspirin</t>
-  </si>
-  <si>
-    <t>199885158</t>
-  </si>
-  <si>
-    <t>79179480</t>
-  </si>
-  <si>
-    <t>79181328</t>
-  </si>
-  <si>
-    <t>2467772</t>
-  </si>
-  <si>
-    <t>bax (homo sapiens)</t>
-  </si>
-  <si>
-    <t>Genes &amp; Molecular Sequences</t>
-  </si>
-  <si>
-    <t>86863812</t>
-  </si>
-  <si>
-    <t>94564826</t>
-  </si>
-  <si>
-    <t>gene product is biomarker type</t>
-  </si>
-  <si>
-    <t>90689988</t>
-  </si>
-  <si>
-    <t>is associated with</t>
-  </si>
-  <si>
-    <t>4027653</t>
-  </si>
-  <si>
-    <t>patients</t>
-  </si>
-  <si>
-    <t>Living Beings</t>
-  </si>
-  <si>
-    <t>120263910</t>
-  </si>
-  <si>
-    <t>is administered to</t>
-  </si>
-  <si>
-    <t>132105537</t>
-  </si>
-  <si>
-    <t>117749300</t>
-  </si>
-  <si>
-    <t>123529137</t>
-  </si>
-  <si>
-    <t>is process of</t>
-  </si>
-  <si>
-    <t>118295831</t>
-  </si>
-  <si>
-    <t>is not process of</t>
-  </si>
-  <si>
-    <t>4041077</t>
-  </si>
-  <si>
-    <t>enalapril</t>
-  </si>
-  <si>
-    <t>143971767</t>
-  </si>
-  <si>
-    <t>81778559</t>
-  </si>
-  <si>
-    <t>432475</t>
-  </si>
-  <si>
-    <t>verapamil</t>
-  </si>
-  <si>
-    <t>152754636</t>
-  </si>
-  <si>
-    <t>does not interact with</t>
-  </si>
-  <si>
-    <t>83180464</t>
-  </si>
-  <si>
-    <t>2787844</t>
-  </si>
-  <si>
-    <t>abcb1 (homo sapiens)</t>
-  </si>
-  <si>
-    <t>196273858</t>
-  </si>
-  <si>
-    <t>94645811</t>
-  </si>
-  <si>
-    <t>90672450</t>
-  </si>
-  <si>
-    <t>94645812</t>
-  </si>
-  <si>
-    <t>gene product variant causes</t>
-  </si>
-  <si>
-    <t>90859</t>
-  </si>
-  <si>
-    <t>amlodipine</t>
-  </si>
-  <si>
-    <t>146110351</t>
-  </si>
-  <si>
-    <t>80126481</t>
-  </si>
-  <si>
-    <t>427699</t>
-  </si>
-  <si>
-    <t>sertraline</t>
-  </si>
-  <si>
-    <t>196079598</t>
-  </si>
-  <si>
-    <t>82660976</t>
-  </si>
-  <si>
-    <t>4033909</t>
-  </si>
-  <si>
-    <t>edema</t>
-  </si>
-  <si>
-    <t>82798955</t>
-  </si>
-  <si>
-    <t>106252920</t>
-  </si>
-  <si>
-    <t>620183</t>
-  </si>
-  <si>
-    <t>triglycerides</t>
-  </si>
-  <si>
-    <t>117707655</t>
-  </si>
-  <si>
-    <t>134292389</t>
-  </si>
-  <si>
-    <t>83033549</t>
-  </si>
-  <si>
-    <t>614774</t>
-  </si>
-  <si>
-    <t>nitric oxide</t>
-  </si>
-  <si>
-    <t>178958763</t>
-  </si>
-  <si>
-    <t>81226642</t>
-  </si>
-  <si>
-    <t>613016</t>
-  </si>
-  <si>
-    <t>comatose</t>
-  </si>
-  <si>
-    <t>82798647</t>
-  </si>
-  <si>
-    <t>106302965</t>
-  </si>
-  <si>
-    <t>5792455</t>
-  </si>
-  <si>
-    <t>atenolol</t>
-  </si>
-  <si>
-    <t>186372440</t>
-  </si>
-  <si>
-    <t>186368706</t>
-  </si>
-  <si>
-    <t>117708110</t>
-  </si>
-  <si>
-    <t>117706506</t>
-  </si>
-  <si>
-    <t>186372874</t>
-  </si>
-  <si>
-    <t>79285285</t>
-  </si>
-  <si>
-    <t>450061</t>
-  </si>
-  <si>
-    <t>propranolol</t>
-  </si>
-  <si>
-    <t>149189499</t>
-  </si>
-  <si>
-    <t>149189515</t>
-  </si>
-  <si>
-    <t>141903489</t>
-  </si>
-  <si>
-    <t>82461481</t>
-  </si>
-  <si>
-    <t>3815520</t>
-  </si>
-  <si>
-    <t>prostatic neoplasms</t>
-  </si>
-  <si>
-    <t>82799790</t>
-  </si>
-  <si>
-    <t>106356244</t>
-  </si>
-  <si>
-    <t>89343</t>
-  </si>
-  <si>
-    <t>tamoxifen</t>
-  </si>
-  <si>
-    <t>172028771</t>
-  </si>
-  <si>
-    <t>82780305</t>
-  </si>
-  <si>
-    <t>82780137</t>
-  </si>
-  <si>
-    <t>807985</t>
-  </si>
-  <si>
-    <t>paclitaxel</t>
-  </si>
-  <si>
-    <t>196284764</t>
-  </si>
-  <si>
-    <t>81550007</t>
-  </si>
-  <si>
-    <t>81550152</t>
-  </si>
-  <si>
-    <t>5793019</t>
-  </si>
-  <si>
-    <t>alfuzosin</t>
-  </si>
-  <si>
-    <t>150620588</t>
-  </si>
-  <si>
-    <t>150619463</t>
-  </si>
-  <si>
-    <t>160649406</t>
-  </si>
-  <si>
-    <t>160649490</t>
-  </si>
-  <si>
-    <t>184349936</t>
-  </si>
-  <si>
-    <t>79593963</t>
-  </si>
-  <si>
-    <t>5646027</t>
-  </si>
-  <si>
-    <t>antibiotics</t>
-  </si>
-  <si>
-    <t>165053017</t>
-  </si>
-  <si>
-    <t>80254372</t>
-  </si>
-  <si>
-    <t>5229804</t>
-  </si>
-  <si>
-    <t>carvedilol</t>
-  </si>
-  <si>
-    <t>194978651</t>
-  </si>
-  <si>
-    <t>80238893</t>
-  </si>
-  <si>
-    <t>4769522</t>
-  </si>
-  <si>
-    <t>chlormezanone</t>
-  </si>
-  <si>
-    <t>123240998</t>
-  </si>
-  <si>
-    <t>123241533</t>
-  </si>
-  <si>
-    <t>80363096</t>
-  </si>
-  <si>
-    <t>4048102</t>
-  </si>
-  <si>
-    <t>nicotine</t>
-  </si>
-  <si>
-    <t>161269726</t>
-  </si>
-  <si>
-    <t>81139674</t>
-  </si>
-  <si>
-    <t>4034783</t>
-  </si>
-  <si>
-    <t>hydrochlorothiazide</t>
-  </si>
-  <si>
-    <t>179723611</t>
-  </si>
-  <si>
-    <t>132107414</t>
-  </si>
-  <si>
-    <t>82512862</t>
-  </si>
-  <si>
-    <t>4027945</t>
-  </si>
-  <si>
-    <t>lipids</t>
-  </si>
-  <si>
-    <t>151635449</t>
-  </si>
-  <si>
-    <t>161176582</t>
-  </si>
-  <si>
-    <t>152754014</t>
-  </si>
-  <si>
-    <t>79920155</t>
-  </si>
-  <si>
-    <t>3814685</t>
-  </si>
-  <si>
-    <t>uridine</t>
-  </si>
-  <si>
-    <t>143638564</t>
-  </si>
-  <si>
-    <t>83068269</t>
-  </si>
-  <si>
-    <t>3760991</t>
-  </si>
-  <si>
-    <t>rauwolscine</t>
-  </si>
-  <si>
-    <t>145082908</t>
-  </si>
-  <si>
-    <t>145082851</t>
-  </si>
-  <si>
-    <t>79216311</t>
-  </si>
-  <si>
-    <t>771187</t>
-  </si>
-  <si>
-    <t>cholesterol</t>
-  </si>
-  <si>
-    <t>181972958</t>
-  </si>
-  <si>
-    <t>80423813</t>
-  </si>
-  <si>
-    <t>4048530</t>
-  </si>
-  <si>
-    <t>hypotension</t>
-  </si>
-  <si>
-    <t>121688484</t>
-  </si>
-  <si>
-    <t>138588700</t>
-  </si>
-  <si>
-    <t>82799117</t>
-  </si>
-  <si>
-    <t>106251774</t>
-  </si>
-  <si>
-    <t>414518</t>
-  </si>
-  <si>
-    <t>congestive heart failure</t>
-  </si>
-  <si>
-    <t>139734878</t>
-  </si>
-  <si>
-    <t>127042694</t>
-  </si>
-  <si>
-    <t>106302451</t>
-  </si>
-  <si>
-    <t>67447</t>
-  </si>
-  <si>
-    <t>hyperlipidemia</t>
-  </si>
-  <si>
-    <t>119138548</t>
-  </si>
-  <si>
-    <t>106361438</t>
-  </si>
-  <si>
-    <t>5699005</t>
-  </si>
-  <si>
-    <t>falls</t>
-  </si>
-  <si>
-    <t>132345958</t>
-  </si>
-  <si>
-    <t>causes</t>
-  </si>
-  <si>
-    <t>106253112</t>
-  </si>
-  <si>
-    <t>5308239</t>
-  </si>
-  <si>
-    <t>woman</t>
-  </si>
-  <si>
-    <t>135052031</t>
-  </si>
-  <si>
-    <t>150043069</t>
-  </si>
-  <si>
-    <t>4047577</t>
-  </si>
-  <si>
-    <t>hypercholesterolemia</t>
-  </si>
-  <si>
-    <t>148104382</t>
-  </si>
-  <si>
-    <t>106303124</t>
-  </si>
-  <si>
-    <t>301179</t>
-  </si>
-  <si>
-    <t>child</t>
-  </si>
-  <si>
-    <t>123223415</t>
-  </si>
-  <si>
-    <t>118464333</t>
+    <t>88403855</t>
+  </si>
+  <si>
+    <t>66341755</t>
   </si>
   <si>
     <t>4033983</t>
@@ -872,31 +872,31 @@
     <t>pharmaceutical preparations</t>
   </si>
   <si>
-    <t>122714490</t>
-  </si>
-  <si>
-    <t>138675089</t>
-  </si>
-  <si>
-    <t>144004828</t>
-  </si>
-  <si>
-    <t>117750020</t>
-  </si>
-  <si>
-    <t>117750118</t>
-  </si>
-  <si>
-    <t>170446018</t>
-  </si>
-  <si>
-    <t>123918270</t>
-  </si>
-  <si>
-    <t>154304911</t>
-  </si>
-  <si>
-    <t>138801081</t>
+    <t>72326125</t>
+  </si>
+  <si>
+    <t>51556144</t>
+  </si>
+  <si>
+    <t>104225203</t>
+  </si>
+  <si>
+    <t>77553442</t>
+  </si>
+  <si>
+    <t>60932869</t>
+  </si>
+  <si>
+    <t>51556237</t>
+  </si>
+  <si>
+    <t>56287758</t>
+  </si>
+  <si>
+    <t>72422109</t>
+  </si>
+  <si>
+    <t>88101354</t>
   </si>
   <si>
     <t>3784305</t>
@@ -908,10 +908,10 @@
     <t>Concepts &amp; Ideas</t>
   </si>
   <si>
-    <t>157654175</t>
-  </si>
-  <si>
-    <t>123013517</t>
+    <t>91463296</t>
+  </si>
+  <si>
+    <t>56622813</t>
   </si>
   <si>
     <t>133368</t>
@@ -920,10 +920,10 @@
     <t>homo sapiens</t>
   </si>
   <si>
-    <t>125230979</t>
-  </si>
-  <si>
-    <t>156828100</t>
+    <t>58814600</t>
+  </si>
+  <si>
+    <t>90643660</t>
   </si>
 </sst>
 </file>
@@ -1128,7 +1128,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>121.0</v>
+        <v>65.0</v>
       </c>
       <c r="B2" t="s">
         <v>50</v>
@@ -1146,16 +1146,16 @@
         <v>54</v>
       </c>
       <c r="G2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K2" t="s">
         <v>58</v>
@@ -1169,28 +1169,10 @@
       <c r="N2" t="s">
         <v>61</v>
       </c>
-      <c r="O2" t="s">
-        <v>62</v>
-      </c>
-      <c r="P2" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>64</v>
-      </c>
-      <c r="R2" t="s">
-        <v>65</v>
-      </c>
-      <c r="S2" t="s">
-        <v>66</v>
-      </c>
-      <c r="T2" t="s">
-        <v>67</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>97.0</v>
+        <v>53.0</v>
       </c>
       <c r="B3" t="s">
         <v>50</v>
@@ -1202,111 +1184,45 @@
         <v>52</v>
       </c>
       <c r="E3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s">
+        <v>64</v>
+      </c>
+      <c r="L3" t="s">
+        <v>65</v>
+      </c>
+      <c r="M3" t="s">
+        <v>66</v>
+      </c>
+      <c r="N3" t="s">
+        <v>67</v>
+      </c>
+      <c r="O3" t="s">
         <v>68</v>
       </c>
-      <c r="F3" t="s">
-        <v>69</v>
-      </c>
-      <c r="G3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H3" t="s">
-        <v>56</v>
-      </c>
-      <c r="I3" t="s">
-        <v>57</v>
-      </c>
-      <c r="J3" t="s">
-        <v>55</v>
-      </c>
-      <c r="K3" t="s">
-        <v>70</v>
-      </c>
-      <c r="L3" t="s">
-        <v>71</v>
-      </c>
-      <c r="M3" t="s">
-        <v>72</v>
-      </c>
-      <c r="N3" t="s">
-        <v>73</v>
-      </c>
-      <c r="O3" t="s">
-        <v>74</v>
-      </c>
       <c r="P3" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>76</v>
-      </c>
-      <c r="R3" t="s">
-        <v>77</v>
-      </c>
-      <c r="S3" t="s">
-        <v>78</v>
-      </c>
-      <c r="T3" t="s">
-        <v>79</v>
-      </c>
-      <c r="U3" t="s">
-        <v>80</v>
-      </c>
-      <c r="V3" t="s">
-        <v>81</v>
-      </c>
-      <c r="W3" t="s">
-        <v>82</v>
-      </c>
-      <c r="X3" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>83</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>85</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>81</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>86</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>87</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>88</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>89</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>90</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>91</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>92</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>73</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>93</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>79.0</v>
+        <v>50.0</v>
       </c>
       <c r="B4" t="s">
         <v>50</v>
@@ -1318,63 +1234,45 @@
         <v>52</v>
       </c>
       <c r="E4" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="F4" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="G4" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="H4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K4" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="L4" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="M4" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="N4" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="O4" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="P4" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>100</v>
-      </c>
-      <c r="R4" t="s">
-        <v>101</v>
-      </c>
-      <c r="S4" t="s">
-        <v>102</v>
-      </c>
-      <c r="T4" t="s">
-        <v>101</v>
-      </c>
-      <c r="U4" t="s">
-        <v>103</v>
-      </c>
-      <c r="V4" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>65.0</v>
+        <v>42.0</v>
       </c>
       <c r="B5" t="s">
         <v>50</v>
@@ -1386,39 +1284,39 @@
         <v>52</v>
       </c>
       <c r="E5" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="F5" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="G5" t="s">
         <v>52</v>
       </c>
       <c r="H5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K5" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="L5" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="M5" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="N5" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>53.0</v>
+        <v>42.0</v>
       </c>
       <c r="B6" t="s">
         <v>50</v>
@@ -1430,45 +1328,111 @@
         <v>52</v>
       </c>
       <c r="E6" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="F6" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="G6" t="s">
         <v>52</v>
       </c>
       <c r="H6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K6" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="L6" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="M6" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="N6" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="O6" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="P6" t="s">
-        <v>63</v>
+        <v>88</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>89</v>
+      </c>
+      <c r="R6" t="s">
+        <v>65</v>
+      </c>
+      <c r="S6" t="s">
+        <v>90</v>
+      </c>
+      <c r="T6" t="s">
+        <v>91</v>
+      </c>
+      <c r="U6" t="s">
+        <v>92</v>
+      </c>
+      <c r="V6" t="s">
+        <v>85</v>
+      </c>
+      <c r="W6" t="s">
+        <v>93</v>
+      </c>
+      <c r="X6" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>99</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>100</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>101</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>102</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>103</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>105</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>50.0</v>
+        <v>33.0</v>
       </c>
       <c r="B7" t="s">
         <v>50</v>
@@ -1480,45 +1444,39 @@
         <v>52</v>
       </c>
       <c r="E7" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="F7" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="G7" t="s">
-        <v>117</v>
+        <v>52</v>
       </c>
       <c r="H7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K7" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="L7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M7" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="N7" t="s">
-        <v>120</v>
-      </c>
-      <c r="O7" t="s">
-        <v>121</v>
-      </c>
-      <c r="P7" t="s">
-        <v>122</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>45.0</v>
+        <v>31.0</v>
       </c>
       <c r="B8" t="s">
         <v>50</v>
@@ -1530,57 +1488,51 @@
         <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="F8" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="G8" t="s">
-        <v>125</v>
+        <v>71</v>
       </c>
       <c r="H8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K8" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="L8" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
       <c r="M8" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="N8" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="O8" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="P8" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="Q8" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="R8" t="s">
-        <v>131</v>
-      </c>
-      <c r="S8" t="s">
-        <v>132</v>
-      </c>
-      <c r="T8" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>42.0</v>
+        <v>30.0</v>
       </c>
       <c r="B9" t="s">
         <v>50</v>
@@ -1592,39 +1544,39 @@
         <v>52</v>
       </c>
       <c r="E9" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="F9" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="G9" t="s">
         <v>52</v>
       </c>
       <c r="H9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K9" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="L9" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="M9" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="N9" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>33.0</v>
+        <v>29.0</v>
       </c>
       <c r="B10" t="s">
         <v>50</v>
@@ -1636,39 +1588,39 @@
         <v>52</v>
       </c>
       <c r="E10" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="F10" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="G10" t="s">
         <v>52</v>
       </c>
       <c r="H10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J10" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K10" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="L10" t="s">
-        <v>141</v>
+        <v>96</v>
       </c>
       <c r="M10" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="N10" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>31.0</v>
+        <v>29.0</v>
       </c>
       <c r="B11" t="s">
         <v>50</v>
@@ -1680,51 +1632,39 @@
         <v>52</v>
       </c>
       <c r="E11" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="F11" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="G11" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="H11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K11" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="L11" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="M11" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="N11" t="s">
-        <v>120</v>
-      </c>
-      <c r="O11" t="s">
-        <v>147</v>
-      </c>
-      <c r="P11" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>148</v>
-      </c>
-      <c r="R11" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>30.0</v>
+        <v>25.0</v>
       </c>
       <c r="B12" t="s">
         <v>50</v>
@@ -1736,39 +1676,45 @@
         <v>52</v>
       </c>
       <c r="E12" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="F12" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="G12" t="s">
         <v>52</v>
       </c>
       <c r="H12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J12" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K12" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="L12" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="M12" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="N12" t="s">
-        <v>109</v>
+        <v>61</v>
+      </c>
+      <c r="O12" t="s">
+        <v>135</v>
+      </c>
+      <c r="P12" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>29.0</v>
+        <v>25.0</v>
       </c>
       <c r="B13" t="s">
         <v>50</v>
@@ -1780,39 +1726,45 @@
         <v>52</v>
       </c>
       <c r="E13" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="F13" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="G13" t="s">
         <v>52</v>
       </c>
       <c r="H13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J13" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K13" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="L13" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="M13" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="N13" t="s">
-        <v>109</v>
+        <v>65</v>
+      </c>
+      <c r="O13" t="s">
+        <v>140</v>
+      </c>
+      <c r="P13" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>29.0</v>
+        <v>25.0</v>
       </c>
       <c r="B14" t="s">
         <v>50</v>
@@ -1824,34 +1776,34 @@
         <v>52</v>
       </c>
       <c r="E14" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="F14" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="G14" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J14" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K14" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="L14" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="M14" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="N14" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15">
@@ -1868,40 +1820,34 @@
         <v>52</v>
       </c>
       <c r="E15" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="F15" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="G15" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="H15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J15" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K15" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="L15" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="M15" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="N15" t="s">
-        <v>73</v>
-      </c>
-      <c r="O15" t="s">
-        <v>166</v>
-      </c>
-      <c r="P15" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16">
@@ -1918,34 +1864,58 @@
         <v>52</v>
       </c>
       <c r="E16" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="F16" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="G16" t="s">
         <v>52</v>
       </c>
       <c r="H16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J16" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K16" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="L16" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="M16" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="N16" t="s">
-        <v>109</v>
+        <v>80</v>
+      </c>
+      <c r="O16" t="s">
+        <v>153</v>
+      </c>
+      <c r="P16" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>154</v>
+      </c>
+      <c r="R16" t="s">
+        <v>80</v>
+      </c>
+      <c r="S16" t="s">
+        <v>155</v>
+      </c>
+      <c r="T16" t="s">
+        <v>65</v>
+      </c>
+      <c r="U16" t="s">
+        <v>156</v>
+      </c>
+      <c r="V16" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="17">
@@ -1962,34 +1932,46 @@
         <v>52</v>
       </c>
       <c r="E17" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="F17" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="G17" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J17" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K17" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="L17" t="s">
+        <v>94</v>
+      </c>
+      <c r="M17" t="s">
+        <v>160</v>
+      </c>
+      <c r="N17" t="s">
         <v>109</v>
       </c>
-      <c r="M17" t="s">
-        <v>174</v>
-      </c>
-      <c r="N17" t="s">
-        <v>67</v>
+      <c r="O17" t="s">
+        <v>161</v>
+      </c>
+      <c r="P17" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>162</v>
+      </c>
+      <c r="R17" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="18">
@@ -2006,63 +1988,39 @@
         <v>52</v>
       </c>
       <c r="E18" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="F18" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="G18" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="H18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J18" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K18" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="L18" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="M18" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="N18" t="s">
-        <v>77</v>
-      </c>
-      <c r="O18" t="s">
-        <v>179</v>
-      </c>
-      <c r="P18" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>180</v>
-      </c>
-      <c r="R18" t="s">
-        <v>81</v>
-      </c>
-      <c r="S18" t="s">
-        <v>181</v>
-      </c>
-      <c r="T18" t="s">
-        <v>71</v>
-      </c>
-      <c r="U18" t="s">
-        <v>182</v>
-      </c>
-      <c r="V18" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>25.0</v>
+        <v>21.0</v>
       </c>
       <c r="B19" t="s">
         <v>50</v>
@@ -2074,51 +2032,45 @@
         <v>52</v>
       </c>
       <c r="E19" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="F19" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="G19" t="s">
         <v>52</v>
       </c>
       <c r="H19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J19" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K19" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="L19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M19" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="N19" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="O19" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="P19" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>188</v>
-      </c>
-      <c r="R19" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>25.0</v>
+        <v>21.0</v>
       </c>
       <c r="B20" t="s">
         <v>50</v>
@@ -2130,34 +2082,58 @@
         <v>52</v>
       </c>
       <c r="E20" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="F20" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="G20" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J20" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K20" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="L20" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="M20" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="N20" t="s">
-        <v>67</v>
+        <v>80</v>
+      </c>
+      <c r="O20" t="s">
+        <v>176</v>
+      </c>
+      <c r="P20" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>177</v>
+      </c>
+      <c r="R20" t="s">
+        <v>94</v>
+      </c>
+      <c r="S20" t="s">
+        <v>178</v>
+      </c>
+      <c r="T20" t="s">
+        <v>80</v>
+      </c>
+      <c r="U20" t="s">
+        <v>179</v>
+      </c>
+      <c r="V20" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="21">
@@ -2174,40 +2150,34 @@
         <v>52</v>
       </c>
       <c r="E21" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="F21" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="G21" t="s">
         <v>52</v>
       </c>
       <c r="H21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J21" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K21" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="L21" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="M21" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="N21" t="s">
-        <v>63</v>
-      </c>
-      <c r="O21" t="s">
-        <v>197</v>
-      </c>
-      <c r="P21" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22">
@@ -2224,40 +2194,34 @@
         <v>52</v>
       </c>
       <c r="E22" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="F22" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="G22" t="s">
         <v>52</v>
       </c>
       <c r="H22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J22" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K22" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="L22" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="M22" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="N22" t="s">
-        <v>109</v>
-      </c>
-      <c r="O22" t="s">
-        <v>202</v>
-      </c>
-      <c r="P22" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23">
@@ -2274,58 +2238,40 @@
         <v>52</v>
       </c>
       <c r="E23" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="F23" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="G23" t="s">
         <v>52</v>
       </c>
       <c r="H23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J23" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K23" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="L23" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="M23" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="N23" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="O23" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="P23" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>208</v>
-      </c>
-      <c r="R23" t="s">
-        <v>77</v>
-      </c>
-      <c r="S23" t="s">
-        <v>209</v>
-      </c>
-      <c r="T23" t="s">
-        <v>73</v>
-      </c>
-      <c r="U23" t="s">
-        <v>210</v>
-      </c>
-      <c r="V23" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24">
@@ -2342,34 +2288,34 @@
         <v>52</v>
       </c>
       <c r="E24" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="F24" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="G24" t="s">
         <v>52</v>
       </c>
       <c r="H24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J24" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K24" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="L24" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="M24" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="N24" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25">
@@ -2386,34 +2332,40 @@
         <v>52</v>
       </c>
       <c r="E25" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="F25" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="G25" t="s">
         <v>52</v>
       </c>
       <c r="H25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J25" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K25" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="L25" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="M25" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="N25" t="s">
-        <v>63</v>
+        <v>80</v>
+      </c>
+      <c r="O25" t="s">
+        <v>201</v>
+      </c>
+      <c r="P25" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="26">
@@ -2430,40 +2382,46 @@
         <v>52</v>
       </c>
       <c r="E26" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="F26" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="G26" t="s">
         <v>52</v>
       </c>
       <c r="H26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J26" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K26" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="L26" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="M26" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="N26" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="O26" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="P26" t="s">
-        <v>109</v>
+        <v>96</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>207</v>
+      </c>
+      <c r="R26" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="27">
@@ -2480,34 +2438,34 @@
         <v>52</v>
       </c>
       <c r="E27" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="F27" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="G27" t="s">
         <v>52</v>
       </c>
       <c r="H27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J27" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K27" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="L27" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="M27" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="N27" t="s">
-        <v>109</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28">
@@ -2524,45 +2482,45 @@
         <v>52</v>
       </c>
       <c r="E28" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="F28" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="G28" t="s">
         <v>52</v>
       </c>
       <c r="H28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J28" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K28" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="L28" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="M28" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="N28" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="O28" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="P28" t="s">
-        <v>109</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>21.0</v>
+        <v>20.0</v>
       </c>
       <c r="B29" t="s">
         <v>50</v>
@@ -2574,51 +2532,39 @@
         <v>52</v>
       </c>
       <c r="E29" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="F29" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="G29" t="s">
         <v>52</v>
       </c>
       <c r="H29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J29" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K29" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="L29" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="M29" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="N29" t="s">
-        <v>73</v>
-      </c>
-      <c r="O29" t="s">
-        <v>237</v>
-      </c>
-      <c r="P29" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>238</v>
-      </c>
-      <c r="R29" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>21.0</v>
+        <v>7.0</v>
       </c>
       <c r="B30" t="s">
         <v>50</v>
@@ -2630,39 +2576,57 @@
         <v>52</v>
       </c>
       <c r="E30" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="F30" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="G30" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="H30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J30" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K30" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
       <c r="L30" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="M30" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
       <c r="N30" t="s">
-        <v>63</v>
+        <v>225</v>
+      </c>
+      <c r="O30" t="s">
+        <v>226</v>
+      </c>
+      <c r="P30" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>228</v>
+      </c>
+      <c r="R30" t="s">
+        <v>229</v>
+      </c>
+      <c r="S30" t="s">
+        <v>230</v>
+      </c>
+      <c r="T30" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>21.0</v>
+        <v>7.0</v>
       </c>
       <c r="B31" t="s">
         <v>50</v>
@@ -2674,45 +2638,45 @@
         <v>52</v>
       </c>
       <c r="E31" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="F31" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="G31" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="H31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J31" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K31" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="L31" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="M31" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="N31" t="s">
-        <v>81</v>
+        <v>225</v>
       </c>
       <c r="O31" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="P31" t="s">
-        <v>63</v>
+        <v>130</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>20.0</v>
+        <v>7.0</v>
       </c>
       <c r="B32" t="s">
         <v>50</v>
@@ -2724,39 +2688,51 @@
         <v>52</v>
       </c>
       <c r="E32" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="F32" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="G32" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="H32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J32" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K32" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="L32" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="M32" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="N32" t="s">
-        <v>109</v>
+        <v>65</v>
+      </c>
+      <c r="O32" t="s">
+        <v>240</v>
+      </c>
+      <c r="P32" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>241</v>
+      </c>
+      <c r="R32" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>9.0</v>
+        <v>6.0</v>
       </c>
       <c r="B33" t="s">
         <v>50</v>
@@ -2768,51 +2744,39 @@
         <v>52</v>
       </c>
       <c r="E33" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="F33" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="G33" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J33" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K33" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="L33" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="M33" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="N33" t="s">
-        <v>75</v>
-      </c>
-      <c r="O33" t="s">
-        <v>256</v>
-      </c>
-      <c r="P33" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>257</v>
-      </c>
-      <c r="R33" t="s">
-        <v>67</v>
+        <v>130</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="B34" t="s">
         <v>50</v>
@@ -2824,40 +2788,34 @@
         <v>52</v>
       </c>
       <c r="E34" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="F34" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="G34" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J34" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K34" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="L34" t="s">
-        <v>63</v>
+        <v>249</v>
       </c>
       <c r="M34" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="N34" t="s">
-        <v>65</v>
-      </c>
-      <c r="O34" t="s">
-        <v>262</v>
-      </c>
-      <c r="P34" t="s">
-        <v>67</v>
+        <v>130</v>
       </c>
     </row>
     <row r="35">
@@ -2874,34 +2832,34 @@
         <v>52</v>
       </c>
       <c r="E35" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="F35" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="G35" t="s">
-        <v>55</v>
+        <v>253</v>
       </c>
       <c r="H35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I35" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J35" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K35" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="L35" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="M35" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="N35" t="s">
-        <v>67</v>
+        <v>256</v>
       </c>
     </row>
     <row r="36">
@@ -2918,39 +2876,39 @@
         <v>52</v>
       </c>
       <c r="E36" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="F36" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="G36" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J36" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K36" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="L36" t="s">
-        <v>270</v>
+        <v>67</v>
       </c>
       <c r="M36" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="N36" t="s">
-        <v>67</v>
+        <v>130</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="B37" t="s">
         <v>50</v>
@@ -2962,39 +2920,57 @@
         <v>52</v>
       </c>
       <c r="E37" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="F37" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="G37" t="s">
-        <v>125</v>
+        <v>253</v>
       </c>
       <c r="H37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I37" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J37" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K37" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="L37" t="s">
-        <v>63</v>
+        <v>225</v>
       </c>
       <c r="M37" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="N37" t="s">
-        <v>131</v>
+        <v>265</v>
+      </c>
+      <c r="O37" t="s">
+        <v>266</v>
+      </c>
+      <c r="P37" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>267</v>
+      </c>
+      <c r="R37" t="s">
+        <v>256</v>
+      </c>
+      <c r="S37" t="s">
+        <v>268</v>
+      </c>
+      <c r="T37" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="B38" t="s">
         <v>50</v>
@@ -3006,39 +2982,39 @@
         <v>52</v>
       </c>
       <c r="E38" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="F38" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="G38" t="s">
-        <v>55</v>
+        <v>253</v>
       </c>
       <c r="H38" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J38" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K38" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="L38" t="s">
-        <v>63</v>
+        <v>265</v>
       </c>
       <c r="M38" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="N38" t="s">
-        <v>67</v>
+        <v>256</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="B39" t="s">
         <v>50</v>
@@ -3050,34 +3026,58 @@
         <v>52</v>
       </c>
       <c r="E39" t="s">
+        <v>274</v>
+      </c>
+      <c r="F39" t="s">
+        <v>275</v>
+      </c>
+      <c r="G39" t="s">
+        <v>276</v>
+      </c>
+      <c r="H39" t="s">
+        <v>55</v>
+      </c>
+      <c r="I39" t="s">
+        <v>56</v>
+      </c>
+      <c r="J39" t="s">
+        <v>57</v>
+      </c>
+      <c r="K39" t="s">
+        <v>277</v>
+      </c>
+      <c r="L39" t="s">
+        <v>80</v>
+      </c>
+      <c r="M39" t="s">
+        <v>278</v>
+      </c>
+      <c r="N39" t="s">
+        <v>100</v>
+      </c>
+      <c r="O39" t="s">
+        <v>279</v>
+      </c>
+      <c r="P39" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q39" t="s">
         <v>280</v>
       </c>
-      <c r="F39" t="s">
+      <c r="R39" t="s">
         <v>281</v>
       </c>
-      <c r="G39" t="s">
-        <v>125</v>
-      </c>
-      <c r="H39" t="s">
-        <v>56</v>
-      </c>
-      <c r="I39" t="s">
-        <v>57</v>
-      </c>
-      <c r="J39" t="s">
-        <v>55</v>
-      </c>
-      <c r="K39" t="s">
+      <c r="S39" t="s">
         <v>282</v>
       </c>
-      <c r="L39" t="s">
-        <v>127</v>
-      </c>
-      <c r="M39" t="s">
+      <c r="T39" t="s">
+        <v>281</v>
+      </c>
+      <c r="U39" t="s">
         <v>283</v>
       </c>
-      <c r="N39" t="s">
-        <v>131</v>
+      <c r="V39" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="40">
@@ -3103,67 +3103,67 @@
         <v>52</v>
       </c>
       <c r="H40" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I40" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J40" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K40" t="s">
         <v>286</v>
       </c>
       <c r="L40" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="M40" t="s">
         <v>287</v>
       </c>
       <c r="N40" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="O40" t="s">
         <v>288</v>
       </c>
       <c r="P40" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="Q40" t="s">
         <v>289</v>
       </c>
       <c r="R40" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="S40" t="s">
         <v>290</v>
       </c>
       <c r="T40" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="U40" t="s">
         <v>291</v>
       </c>
       <c r="V40" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="W40" t="s">
         <v>292</v>
       </c>
       <c r="X40" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="Y40" t="s">
         <v>293</v>
       </c>
       <c r="Z40" t="s">
-        <v>63</v>
+        <v>249</v>
       </c>
       <c r="AA40" t="s">
         <v>294</v>
       </c>
       <c r="AB40" t="s">
-        <v>270</v>
+        <v>67</v>
       </c>
     </row>
     <row r="41">
@@ -3189,25 +3189,25 @@
         <v>297</v>
       </c>
       <c r="H41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J41" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K41" t="s">
         <v>298</v>
       </c>
       <c r="L41" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="M41" t="s">
         <v>299</v>
       </c>
       <c r="N41" t="s">
-        <v>67</v>
+        <v>130</v>
       </c>
     </row>
     <row r="42">
@@ -3230,28 +3230,28 @@
         <v>301</v>
       </c>
       <c r="G42" t="s">
-        <v>125</v>
+        <v>253</v>
       </c>
       <c r="H42" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I42" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J42" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K42" t="s">
         <v>302</v>
       </c>
       <c r="L42" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="M42" t="s">
         <v>303</v>
       </c>
       <c r="N42" t="s">
-        <v>131</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>
